--- a/Data_Driven/PrintTranscript/SecB_printrans_data.xlsx
+++ b/Data_Driven/PrintTranscript/SecB_printrans_data.xlsx
@@ -3,31 +3,38 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
-      <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Arial"/>
-      <color theme="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -48,16 +55,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -65,15 +72,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -146,14 +181,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -180,22 +215,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -207,131 +302,158 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -344,18 +466,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>SelectCampus</t>
@@ -366,361 +495,361 @@
           <t>Quantity</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Confirm</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Expected</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>LackQuanity</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>LackQuantity</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>UnableBtn</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>UnableBtn</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>UnableBtn</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>UnableBtn</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>UnableBtn</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>UnableBtn</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>InvalidQuantity</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>LackLocation</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>LackLocation</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>LackLocation</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>LackQuanity</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>LackQuantity</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20.25" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>UnableBtn</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" s="7" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
